--- a/enumeration.xlsx
+++ b/enumeration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Bike paper\HHbike\HHbike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388F5D6-6DD1-4CFD-8EAB-CE7C3135E859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE75AC91-C78C-4CD5-A835-E0FFE71511FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="10970" windowHeight="9100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lane" sheetId="1" r:id="rId1"/>
@@ -1662,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E3DA0B-18E2-48DD-B2D3-873EDF56924B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1708,69 +1708,15 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>